--- a/Main/履歴書_DAS SWAGATA.xlsx
+++ b/Main/履歴書_DAS SWAGATA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36986C9-3ACB-4CB0-B217-B7D8F7609DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11B822E-4BC1-2B4F-9DB3-21FCB41D4381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴書" sheetId="25" r:id="rId1"/>
@@ -1235,6 +1235,492 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1265,9 +1751,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,15 +1760,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1295,18 +1769,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1322,15 +1787,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1356,462 +1812,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2463,52 +2463,52 @@
   </sheetPr>
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="62" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45:AA54"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScale="64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="62" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32:AA41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="2" customWidth="1"/>
-    <col min="2" max="27" width="8.26953125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.26953125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="10.1640625" style="2" customWidth="1"/>
+    <col min="2" max="27" width="8.33203125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.33203125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="176"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2534,274 +2534,274 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="26"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="40"/>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="29"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="186"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="186"/>
+      <c r="AA4" s="187"/>
     </row>
     <row r="5" spans="1:28" ht="13" customHeight="1" thickTop="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="35">
+      <c r="O5" s="190">
         <v>2021</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="191">
         <v>8</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="11"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="173"/>
     </row>
     <row r="6" spans="1:28" ht="13" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="189"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="11"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="172"/>
+      <c r="Z6" s="172"/>
+      <c r="AA6" s="173"/>
     </row>
     <row r="7" spans="1:28" ht="13" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="O7" s="35">
+      <c r="O7" s="190">
         <v>2020</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="191">
         <v>7</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="11"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="172"/>
+      <c r="V7" s="172"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="172"/>
+      <c r="Z7" s="172"/>
+      <c r="AA7" s="173"/>
     </row>
     <row r="8" spans="1:28" ht="13" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="11"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="173"/>
     </row>
     <row r="9" spans="1:28" ht="13" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="O9" s="35">
+      <c r="O9" s="190">
         <v>2020</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="191">
         <v>12</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="11"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="172"/>
+      <c r="Y9" s="172"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="173"/>
     </row>
     <row r="10" spans="1:28" ht="13" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="13"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="175"/>
     </row>
     <row r="11" spans="1:28" ht="13" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="199"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2820,544 +2820,544 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:28" ht="13" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="202"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="O12" s="166" t="s">
+      <c r="O12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="167" t="s">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="168"/>
-      <c r="U12" s="169"/>
-      <c r="V12" s="168" t="s">
+      <c r="T12" s="21"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="168"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="168" t="s">
+      <c r="W12" s="21"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="169"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="22"/>
       <c r="AB12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="13" customHeight="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="74" t="s">
+      <c r="F13" s="161"/>
+      <c r="G13" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="20" t="s">
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="82"/>
-      <c r="O13" s="170" t="s">
+      <c r="M13" s="170"/>
+      <c r="O13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="176" t="s">
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="123"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="123" t="s">
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="W13" s="123"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="177" t="s">
+      <c r="W13" s="30"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Z13" s="178"/>
-      <c r="AA13" s="179"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="37"/>
     </row>
     <row r="14" spans="1:28" ht="13" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="65"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="79"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="133"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="34"/>
     </row>
     <row r="15" spans="1:28" ht="13" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="57" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="121"/>
     </row>
     <row r="16" spans="1:28" ht="13" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="60" t="s">
+      <c r="A16" s="126"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="130"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="180" t="s">
+      <c r="O16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="26"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="40"/>
     </row>
     <row r="17" spans="1:27" ht="13" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="69"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="43"/>
     </row>
     <row r="18" spans="1:27" ht="13" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="57" t="s">
+      <c r="A18" s="135"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
-      <c r="O18" s="182" t="s">
+      <c r="L18" s="120"/>
+      <c r="M18" s="121"/>
+      <c r="O18" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="184"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="46"/>
     </row>
     <row r="19" spans="1:27" ht="13" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="90" t="s">
+      <c r="A19" s="135"/>
+      <c r="B19" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="96" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="97"/>
-      <c r="M19" s="98"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="186"/>
-      <c r="AA19" s="187"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="149"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
     </row>
     <row r="20" spans="1:27" ht="13" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="O20" s="185"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="186"/>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="186"/>
-      <c r="Z20" s="186"/>
-      <c r="AA20" s="187"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="152"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="49"/>
     </row>
     <row r="21" spans="1:27" ht="13" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="57" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="O21" s="185"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="186"/>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="187"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="121"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
     </row>
     <row r="22" spans="1:27" ht="13" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="186"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="186"/>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
-      <c r="U22" s="186"/>
-      <c r="V22" s="186"/>
-      <c r="W22" s="186"/>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="186"/>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="187"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="130"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="49"/>
     </row>
     <row r="23" spans="1:27" ht="13" customHeight="1">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="120" t="s">
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="186"/>
-      <c r="X23" s="186"/>
-      <c r="Y23" s="186"/>
-      <c r="Z23" s="186"/>
-      <c r="AA23" s="187"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="49"/>
     </row>
     <row r="24" spans="1:27" ht="13" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="57" t="s">
+      <c r="A24" s="135"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="O24" s="185"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-      <c r="V24" s="186"/>
-      <c r="W24" s="186"/>
-      <c r="X24" s="186"/>
-      <c r="Y24" s="186"/>
-      <c r="Z24" s="186"/>
-      <c r="AA24" s="187"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="121"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="49"/>
     </row>
     <row r="25" spans="1:27" ht="13" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="91" t="s">
+      <c r="A25" s="135"/>
+      <c r="B25" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="124"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="187"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="49"/>
     </row>
     <row r="26" spans="1:27" ht="13" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="O26" s="185"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="186"/>
-      <c r="X26" s="186"/>
-      <c r="Y26" s="186"/>
-      <c r="Z26" s="186"/>
-      <c r="AA26" s="187"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="34"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="49"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1">
-      <c r="O27" s="185"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="186"/>
-      <c r="Z27" s="186"/>
-      <c r="AA27" s="187"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="49"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117"/>
-      <c r="O28" s="188"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="189"/>
-      <c r="S28" s="189"/>
-      <c r="T28" s="189"/>
-      <c r="U28" s="189"/>
-      <c r="V28" s="189"/>
-      <c r="W28" s="189"/>
-      <c r="X28" s="189"/>
-      <c r="Y28" s="189"/>
-      <c r="Z28" s="189"/>
-      <c r="AA28" s="190"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="114"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="52"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="113"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="119"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="116"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -3373,8 +3373,8 @@
       <c r="AA29" s="8"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="106" t="s">
         <v>19</v>
       </c>
@@ -3388,382 +3388,382 @@
       <c r="K30" s="107"/>
       <c r="L30" s="107"/>
       <c r="M30" s="108"/>
-      <c r="O30" s="180" t="s">
+      <c r="O30" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="26"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="40"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
-      <c r="A31" s="103"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="105"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="111"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="69"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="43"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1">
-      <c r="A32" s="125">
+      <c r="A32" s="67">
         <v>2009</v>
       </c>
-      <c r="B32" s="126">
+      <c r="B32" s="75">
         <v>5</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="129"/>
-      <c r="O32" s="182" t="s">
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="94"/>
+      <c r="O32" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="183"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="184"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="46"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="132"/>
-      <c r="O33" s="185"/>
-      <c r="P33" s="186"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="186"/>
-      <c r="U33" s="186"/>
-      <c r="V33" s="186"/>
-      <c r="W33" s="186"/>
-      <c r="X33" s="186"/>
-      <c r="Y33" s="186"/>
-      <c r="Z33" s="186"/>
-      <c r="AA33" s="187"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="97"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="49"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1">
-      <c r="A34" s="125">
+      <c r="A34" s="67">
         <v>2013</v>
       </c>
-      <c r="B34" s="126">
+      <c r="B34" s="75">
         <v>5</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="129"/>
-      <c r="O34" s="185"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="186"/>
-      <c r="S34" s="186"/>
-      <c r="T34" s="186"/>
-      <c r="U34" s="186"/>
-      <c r="V34" s="186"/>
-      <c r="W34" s="186"/>
-      <c r="X34" s="186"/>
-      <c r="Y34" s="186"/>
-      <c r="Z34" s="186"/>
-      <c r="AA34" s="187"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="49"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="132"/>
-      <c r="O35" s="185"/>
-      <c r="P35" s="186"/>
-      <c r="Q35" s="186"/>
-      <c r="R35" s="186"/>
-      <c r="S35" s="186"/>
-      <c r="T35" s="186"/>
-      <c r="U35" s="186"/>
-      <c r="V35" s="186"/>
-      <c r="W35" s="186"/>
-      <c r="X35" s="186"/>
-      <c r="Y35" s="186"/>
-      <c r="Z35" s="186"/>
-      <c r="AA35" s="187"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="97"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="49"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1">
-      <c r="A36" s="125">
+      <c r="A36" s="67">
         <v>2013</v>
       </c>
-      <c r="B36" s="126">
+      <c r="B36" s="75">
         <v>6</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="129"/>
-      <c r="O36" s="185"/>
-      <c r="P36" s="186"/>
-      <c r="Q36" s="186"/>
-      <c r="R36" s="186"/>
-      <c r="S36" s="186"/>
-      <c r="T36" s="186"/>
-      <c r="U36" s="186"/>
-      <c r="V36" s="186"/>
-      <c r="W36" s="186"/>
-      <c r="X36" s="186"/>
-      <c r="Y36" s="186"/>
-      <c r="Z36" s="186"/>
-      <c r="AA36" s="187"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="94"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="49"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="132"/>
-      <c r="O37" s="185"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="186"/>
-      <c r="S37" s="186"/>
-      <c r="T37" s="186"/>
-      <c r="U37" s="186"/>
-      <c r="V37" s="186"/>
-      <c r="W37" s="186"/>
-      <c r="X37" s="186"/>
-      <c r="Y37" s="186"/>
-      <c r="Z37" s="186"/>
-      <c r="AA37" s="187"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="97"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="49"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1">
-      <c r="A38" s="125">
+      <c r="A38" s="67">
         <v>2015</v>
       </c>
-      <c r="B38" s="126">
+      <c r="B38" s="75">
         <v>5</v>
       </c>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="129"/>
-      <c r="O38" s="185"/>
-      <c r="P38" s="186"/>
-      <c r="Q38" s="186"/>
-      <c r="R38" s="186"/>
-      <c r="S38" s="186"/>
-      <c r="T38" s="186"/>
-      <c r="U38" s="186"/>
-      <c r="V38" s="186"/>
-      <c r="W38" s="186"/>
-      <c r="X38" s="186"/>
-      <c r="Y38" s="186"/>
-      <c r="Z38" s="186"/>
-      <c r="AA38" s="187"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="94"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="49"/>
     </row>
     <row r="39" spans="1:27" ht="15" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="132"/>
-      <c r="O39" s="185"/>
-      <c r="P39" s="186"/>
-      <c r="Q39" s="186"/>
-      <c r="R39" s="186"/>
-      <c r="S39" s="186"/>
-      <c r="T39" s="186"/>
-      <c r="U39" s="186"/>
-      <c r="V39" s="186"/>
-      <c r="W39" s="186"/>
-      <c r="X39" s="186"/>
-      <c r="Y39" s="186"/>
-      <c r="Z39" s="186"/>
-      <c r="AA39" s="187"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="97"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="49"/>
     </row>
     <row r="40" spans="1:27" ht="15" customHeight="1">
-      <c r="A40" s="125">
+      <c r="A40" s="67">
         <v>2016</v>
       </c>
-      <c r="B40" s="126">
+      <c r="B40" s="75">
         <v>4</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="129"/>
-      <c r="O40" s="185"/>
-      <c r="P40" s="186"/>
-      <c r="Q40" s="186"/>
-      <c r="R40" s="186"/>
-      <c r="S40" s="186"/>
-      <c r="T40" s="186"/>
-      <c r="U40" s="186"/>
-      <c r="V40" s="186"/>
-      <c r="W40" s="186"/>
-      <c r="X40" s="186"/>
-      <c r="Y40" s="186"/>
-      <c r="Z40" s="186"/>
-      <c r="AA40" s="187"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="94"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="49"/>
     </row>
     <row r="41" spans="1:27" ht="93" customHeight="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="132"/>
-      <c r="O41" s="188"/>
-      <c r="P41" s="189"/>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="189"/>
-      <c r="S41" s="189"/>
-      <c r="T41" s="189"/>
-      <c r="U41" s="189"/>
-      <c r="V41" s="189"/>
-      <c r="W41" s="189"/>
-      <c r="X41" s="189"/>
-      <c r="Y41" s="189"/>
-      <c r="Z41" s="189"/>
-      <c r="AA41" s="190"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="97"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="52"/>
     </row>
     <row r="42" spans="1:27" ht="15" customHeight="1">
-      <c r="A42" s="125">
+      <c r="A42" s="67">
         <v>2018</v>
       </c>
-      <c r="B42" s="126">
+      <c r="B42" s="75">
         <v>4</v>
       </c>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="129"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="94"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3779,396 +3779,396 @@
       <c r="AA42" s="6"/>
     </row>
     <row r="43" spans="1:27" ht="32" customHeight="1">
-      <c r="A43" s="102"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="132"/>
-      <c r="O43" s="180" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="97"/>
+      <c r="O43" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="26"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="40"/>
     </row>
     <row r="44" spans="1:27" ht="15" customHeight="1">
-      <c r="A44" s="125">
+      <c r="A44" s="67">
         <v>2018</v>
       </c>
-      <c r="B44" s="126">
+      <c r="B44" s="75">
         <v>4</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="129"/>
-      <c r="O44" s="181"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="68"/>
-      <c r="Z44" s="68"/>
-      <c r="AA44" s="69"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="94"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="43"/>
     </row>
     <row r="45" spans="1:27" ht="34.5" customHeight="1">
-      <c r="A45" s="102"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="131"/>
-      <c r="K45" s="131"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="132"/>
-      <c r="O45" s="182" t="s">
+      <c r="A45" s="68"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="97"/>
+      <c r="O45" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="P45" s="191"/>
-      <c r="Q45" s="191"/>
-      <c r="R45" s="191"/>
-      <c r="S45" s="191"/>
-      <c r="T45" s="191"/>
-      <c r="U45" s="191"/>
-      <c r="V45" s="191"/>
-      <c r="W45" s="191"/>
-      <c r="X45" s="191"/>
-      <c r="Y45" s="191"/>
-      <c r="Z45" s="191"/>
-      <c r="AA45" s="192"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="54"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="125">
+      <c r="A46" s="67">
         <v>2020</v>
       </c>
-      <c r="B46" s="126">
+      <c r="B46" s="75">
         <v>9</v>
       </c>
-      <c r="C46" s="127" t="s">
+      <c r="C46" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="129"/>
-      <c r="O46" s="193"/>
-      <c r="P46" s="194"/>
-      <c r="Q46" s="194"/>
-      <c r="R46" s="194"/>
-      <c r="S46" s="194"/>
-      <c r="T46" s="194"/>
-      <c r="U46" s="194"/>
-      <c r="V46" s="194"/>
-      <c r="W46" s="194"/>
-      <c r="X46" s="194"/>
-      <c r="Y46" s="194"/>
-      <c r="Z46" s="194"/>
-      <c r="AA46" s="195"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="94"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="57"/>
     </row>
     <row r="47" spans="1:27" ht="29" customHeight="1">
-      <c r="A47" s="102"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="132"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="97"/>
       <c r="N47" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="193"/>
-      <c r="P47" s="194"/>
-      <c r="Q47" s="194"/>
-      <c r="R47" s="194"/>
-      <c r="S47" s="194"/>
-      <c r="T47" s="194"/>
-      <c r="U47" s="194"/>
-      <c r="V47" s="194"/>
-      <c r="W47" s="194"/>
-      <c r="X47" s="194"/>
-      <c r="Y47" s="194"/>
-      <c r="Z47" s="194"/>
-      <c r="AA47" s="195"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="57"/>
     </row>
     <row r="48" spans="1:27" ht="15" customHeight="1">
-      <c r="A48" s="125"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="133" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="135"/>
-      <c r="O48" s="193"/>
-      <c r="P48" s="194"/>
-      <c r="Q48" s="194"/>
-      <c r="R48" s="194"/>
-      <c r="S48" s="194"/>
-      <c r="T48" s="194"/>
-      <c r="U48" s="194"/>
-      <c r="V48" s="194"/>
-      <c r="W48" s="194"/>
-      <c r="X48" s="194"/>
-      <c r="Y48" s="194"/>
-      <c r="Z48" s="194"/>
-      <c r="AA48" s="195"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="100"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="57"/>
     </row>
     <row r="49" spans="1:27" ht="15" customHeight="1">
-      <c r="A49" s="102"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="111"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="194"/>
-      <c r="Q49" s="194"/>
-      <c r="R49" s="194"/>
-      <c r="S49" s="194"/>
-      <c r="T49" s="194"/>
-      <c r="U49" s="194"/>
-      <c r="V49" s="194"/>
-      <c r="W49" s="194"/>
-      <c r="X49" s="194"/>
-      <c r="Y49" s="194"/>
-      <c r="Z49" s="194"/>
-      <c r="AA49" s="195"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="103"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="57"/>
     </row>
     <row r="50" spans="1:27" ht="15" customHeight="1">
-      <c r="A50" s="125">
+      <c r="A50" s="67">
         <v>2014</v>
       </c>
-      <c r="B50" s="126">
+      <c r="B50" s="75">
         <v>6</v>
       </c>
-      <c r="C50" s="155" t="s">
+      <c r="C50" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="155"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="155"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="156"/>
-      <c r="O50" s="193"/>
-      <c r="P50" s="194"/>
-      <c r="Q50" s="194"/>
-      <c r="R50" s="194"/>
-      <c r="S50" s="194"/>
-      <c r="T50" s="194"/>
-      <c r="U50" s="194"/>
-      <c r="V50" s="194"/>
-      <c r="W50" s="194"/>
-      <c r="X50" s="194"/>
-      <c r="Y50" s="194"/>
-      <c r="Z50" s="194"/>
-      <c r="AA50" s="195"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="91"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="57"/>
     </row>
     <row r="51" spans="1:27" ht="15" customHeight="1">
-      <c r="A51" s="102"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="151"/>
-      <c r="O51" s="193"/>
-      <c r="P51" s="194"/>
-      <c r="Q51" s="194"/>
-      <c r="R51" s="194"/>
-      <c r="S51" s="194"/>
-      <c r="T51" s="194"/>
-      <c r="U51" s="194"/>
-      <c r="V51" s="194"/>
-      <c r="W51" s="194"/>
-      <c r="X51" s="194"/>
-      <c r="Y51" s="194"/>
-      <c r="Z51" s="194"/>
-      <c r="AA51" s="195"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="86"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="57"/>
     </row>
     <row r="52" spans="1:27" ht="15" customHeight="1">
-      <c r="A52" s="125">
+      <c r="A52" s="67">
         <v>2015</v>
       </c>
-      <c r="B52" s="136">
+      <c r="B52" s="69">
         <v>4</v>
       </c>
-      <c r="C52" s="150"/>
-      <c r="D52" s="150"/>
-      <c r="E52" s="150"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="151"/>
-      <c r="O52" s="193"/>
-      <c r="P52" s="194"/>
-      <c r="Q52" s="194"/>
-      <c r="R52" s="194"/>
-      <c r="S52" s="194"/>
-      <c r="T52" s="194"/>
-      <c r="U52" s="194"/>
-      <c r="V52" s="194"/>
-      <c r="W52" s="194"/>
-      <c r="X52" s="194"/>
-      <c r="Y52" s="194"/>
-      <c r="Z52" s="194"/>
-      <c r="AA52" s="195"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="86"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="57"/>
     </row>
     <row r="53" spans="1:27" ht="15" customHeight="1">
-      <c r="A53" s="102"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="153"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="154"/>
-      <c r="O53" s="193"/>
-      <c r="P53" s="194"/>
-      <c r="Q53" s="194"/>
-      <c r="R53" s="194"/>
-      <c r="S53" s="194"/>
-      <c r="T53" s="194"/>
-      <c r="U53" s="194"/>
-      <c r="V53" s="194"/>
-      <c r="W53" s="194"/>
-      <c r="X53" s="194"/>
-      <c r="Y53" s="194"/>
-      <c r="Z53" s="194"/>
-      <c r="AA53" s="195"/>
-    </row>
-    <row r="54" spans="1:27" ht="30.65" customHeight="1">
-      <c r="A54" s="125">
+      <c r="A53" s="68"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="89"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="57"/>
+    </row>
+    <row r="54" spans="1:27" ht="30.75" customHeight="1">
+      <c r="A54" s="67">
         <v>2018</v>
       </c>
-      <c r="B54" s="125">
+      <c r="B54" s="67">
         <v>11</v>
       </c>
-      <c r="C54" s="147" t="s">
+      <c r="C54" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147"/>
-      <c r="M54" s="148"/>
-      <c r="O54" s="196"/>
-      <c r="P54" s="197"/>
-      <c r="Q54" s="197"/>
-      <c r="R54" s="197"/>
-      <c r="S54" s="197"/>
-      <c r="T54" s="197"/>
-      <c r="U54" s="197"/>
-      <c r="V54" s="197"/>
-      <c r="W54" s="197"/>
-      <c r="X54" s="197"/>
-      <c r="Y54" s="197"/>
-      <c r="Z54" s="197"/>
-      <c r="AA54" s="198"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="83"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="60"/>
     </row>
     <row r="55" spans="1:27" ht="15" customHeight="1">
-      <c r="A55" s="102">
+      <c r="A55" s="68">
         <v>2018</v>
       </c>
-      <c r="B55" s="102">
+      <c r="B55" s="68">
         <v>12</v>
       </c>
-      <c r="C55" s="150"/>
-      <c r="D55" s="150"/>
-      <c r="E55" s="150"/>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="150"/>
-      <c r="K55" s="150"/>
-      <c r="L55" s="150"/>
-      <c r="M55" s="151"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="86"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -4184,315 +4184,225 @@
       <c r="AA55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="15" customHeight="1">
-      <c r="A56" s="125">
+      <c r="A56" s="67">
         <v>2018</v>
       </c>
-      <c r="B56" s="125">
+      <c r="B56" s="67">
         <v>12</v>
       </c>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="151"/>
-      <c r="O56" s="199" t="s">
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="86"/>
+      <c r="O56" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="53"/>
-    </row>
-    <row r="57" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A57" s="102">
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="63"/>
+    </row>
+    <row r="57" spans="1:27" ht="15" thickBot="1">
+      <c r="A57" s="68">
         <v>2018</v>
       </c>
-      <c r="B57" s="102">
+      <c r="B57" s="68">
         <v>12</v>
       </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="154"/>
-      <c r="O57" s="200"/>
-      <c r="P57" s="201"/>
-      <c r="Q57" s="201"/>
-      <c r="R57" s="201"/>
-      <c r="S57" s="201"/>
-      <c r="T57" s="201"/>
-      <c r="U57" s="201"/>
-      <c r="V57" s="201"/>
-      <c r="W57" s="201"/>
-      <c r="X57" s="201"/>
-      <c r="Y57" s="201"/>
-      <c r="Z57" s="201"/>
-      <c r="AA57" s="202"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="89"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="65"/>
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="66"/>
     </row>
     <row r="58" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A58" s="125">
+      <c r="A58" s="67">
         <v>2020</v>
       </c>
-      <c r="B58" s="126">
+      <c r="B58" s="75">
         <v>10</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="C58" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="148"/>
-      <c r="O58" s="157" t="s">
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="83"/>
+      <c r="O58" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P58" s="158"/>
-      <c r="Q58" s="158"/>
-      <c r="R58" s="158"/>
-      <c r="S58" s="158"/>
-      <c r="T58" s="158"/>
-      <c r="U58" s="158"/>
-      <c r="V58" s="158"/>
-      <c r="W58" s="158"/>
-      <c r="X58" s="158"/>
-      <c r="Y58" s="158"/>
-      <c r="Z58" s="158"/>
-      <c r="AA58" s="159"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="12"/>
     </row>
     <row r="59" spans="1:27" ht="44" customHeight="1">
-      <c r="A59" s="102"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="150"/>
-      <c r="L59" s="150"/>
-      <c r="M59" s="151"/>
-      <c r="O59" s="160"/>
-      <c r="P59" s="161"/>
-      <c r="Q59" s="161"/>
-      <c r="R59" s="161"/>
-      <c r="S59" s="161"/>
-      <c r="T59" s="161"/>
-      <c r="U59" s="161"/>
-      <c r="V59" s="161"/>
-      <c r="W59" s="161"/>
-      <c r="X59" s="161"/>
-      <c r="Y59" s="161"/>
-      <c r="Z59" s="161"/>
-      <c r="AA59" s="162"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="86"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="15"/>
     </row>
     <row r="60" spans="1:27" ht="15" customHeight="1">
-      <c r="A60" s="142" t="s">
+      <c r="A60" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="143"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="150"/>
-      <c r="E60" s="150"/>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="150"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="151"/>
-      <c r="O60" s="160"/>
-      <c r="P60" s="161"/>
-      <c r="Q60" s="161"/>
-      <c r="R60" s="161"/>
-      <c r="S60" s="161"/>
-      <c r="T60" s="161"/>
-      <c r="U60" s="161"/>
-      <c r="V60" s="161"/>
-      <c r="W60" s="161"/>
-      <c r="X60" s="161"/>
-      <c r="Y60" s="161"/>
-      <c r="Z60" s="161"/>
-      <c r="AA60" s="162"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="86"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="15"/>
     </row>
     <row r="61" spans="1:27" ht="15" customHeight="1">
-      <c r="A61" s="144"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="154"/>
-      <c r="O61" s="163"/>
-      <c r="P61" s="164"/>
-      <c r="Q61" s="164"/>
-      <c r="R61" s="164"/>
-      <c r="S61" s="164"/>
-      <c r="T61" s="164"/>
-      <c r="U61" s="164"/>
-      <c r="V61" s="164"/>
-      <c r="W61" s="164"/>
-      <c r="X61" s="164"/>
-      <c r="Y61" s="164"/>
-      <c r="Z61" s="164"/>
-      <c r="AA61" s="165"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="89"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="18"/>
     </row>
     <row r="62" spans="1:27" ht="15" customHeight="1">
-      <c r="A62" s="138"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
     </row>
     <row r="63" spans="1:27" ht="15" customHeight="1">
-      <c r="A63" s="139"/>
-      <c r="B63" s="141"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="141"/>
-      <c r="J63" s="141"/>
-      <c r="K63" s="141"/>
-      <c r="L63" s="141"/>
-      <c r="M63" s="141"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="O58:AA61"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="O13:R14"/>
-    <mergeCell ref="S13:U14"/>
-    <mergeCell ref="V13:X14"/>
-    <mergeCell ref="Y13:AA14"/>
-    <mergeCell ref="O43:AA44"/>
-    <mergeCell ref="O30:AA31"/>
-    <mergeCell ref="O16:AA17"/>
-    <mergeCell ref="O18:AA28"/>
-    <mergeCell ref="O32:AA41"/>
-    <mergeCell ref="O45:AA54"/>
-    <mergeCell ref="O56:AA57"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:M63"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C58:M61"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C50:M53"/>
-    <mergeCell ref="C54:M57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:M39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:M41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:M43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:M47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:M49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:M35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:M33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:M31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:M29"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B25:J26"/>
-    <mergeCell ref="K25:M26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:J22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M23"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B19:J20"/>
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:J16"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:M14"/>
     <mergeCell ref="Q7:AA8"/>
     <mergeCell ref="Q9:AA10"/>
     <mergeCell ref="A1:C1"/>
@@ -4514,13 +4424,103 @@
     <mergeCell ref="B7:J12"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:J16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:J22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M23"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:M31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:M29"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B25:J26"/>
+    <mergeCell ref="K25:M26"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:M35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:M33"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:M47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:M49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:M39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:M41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:M43"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:M63"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C58:M61"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C50:M53"/>
+    <mergeCell ref="C54:M57"/>
+    <mergeCell ref="O58:AA61"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="O13:R14"/>
+    <mergeCell ref="S13:U14"/>
+    <mergeCell ref="V13:X14"/>
+    <mergeCell ref="Y13:AA14"/>
+    <mergeCell ref="O43:AA44"/>
+    <mergeCell ref="O30:AA31"/>
+    <mergeCell ref="O16:AA17"/>
+    <mergeCell ref="O18:AA28"/>
+    <mergeCell ref="O32:AA41"/>
+    <mergeCell ref="O45:AA54"/>
+    <mergeCell ref="O56:AA57"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="K19" r:id="rId1" xr:uid="{3A4D3233-DDA3-452E-841D-3F506C922838}"/>
   </hyperlinks>
   <pageMargins left="0.62992125984252001" right="0.511811023622047" top="0.70866141732283505" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;G</oddHeader>
   </headerFooter>
